--- a/Code/Results/Cases/Case_3_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_149/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.122165775244071</v>
+        <v>1.806795917023464</v>
       </c>
       <c r="C2">
-        <v>0.05808006973230562</v>
+        <v>0.01365998443658611</v>
       </c>
       <c r="D2">
-        <v>0.08666241968935395</v>
+        <v>0.0216406295584477</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.680971176616993</v>
+        <v>6.990267896841829</v>
       </c>
       <c r="G2">
-        <v>0.0008858874388798296</v>
+        <v>0.00269604581964237</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2137300567987381</v>
+        <v>0.2890488050483313</v>
       </c>
       <c r="K2">
-        <v>0.9140418003348998</v>
+        <v>1.232829515477675</v>
       </c>
       <c r="L2">
-        <v>0.09794226215803548</v>
+        <v>0.285116032269876</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.010415673023857</v>
+        <v>1.80015809124103</v>
       </c>
       <c r="C3">
-        <v>0.05005061582006221</v>
+        <v>0.01177974038080976</v>
       </c>
       <c r="D3">
-        <v>0.07598705613961698</v>
+        <v>0.01910724806568709</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7.028316595110795</v>
+        <v>6.796685944482363</v>
       </c>
       <c r="G3">
-        <v>0.0008947548510427252</v>
+        <v>0.002701233681433745</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2007607754206973</v>
+        <v>0.285473506385415</v>
       </c>
       <c r="K3">
-        <v>0.8100181268461881</v>
+        <v>1.223749541883478</v>
       </c>
       <c r="L3">
-        <v>0.09170235937271087</v>
+        <v>0.2874226506143316</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.944440256553122</v>
+        <v>1.797453289979302</v>
       </c>
       <c r="C4">
-        <v>0.04522870179783212</v>
+        <v>0.01063189762125205</v>
       </c>
       <c r="D4">
-        <v>0.06952510577148274</v>
+        <v>0.01755943812875671</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.634090892244586</v>
+        <v>6.678346016927122</v>
       </c>
       <c r="G4">
-        <v>0.0009003409245017926</v>
+        <v>0.00270458450299471</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1929547971298149</v>
+        <v>0.2833088728896698</v>
       </c>
       <c r="K4">
-        <v>0.7484250806801072</v>
+        <v>1.219257744936954</v>
       </c>
       <c r="L4">
-        <v>0.08817393813841079</v>
+        <v>0.2890464724699129</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.918162175306577</v>
+        <v>1.7966956522163</v>
       </c>
       <c r="C5">
-        <v>0.04328633220754341</v>
+        <v>0.01016570710898179</v>
       </c>
       <c r="D5">
-        <v>0.06691056238528148</v>
+        <v>0.01693048644654738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.474858732205519</v>
+        <v>6.630248799866166</v>
       </c>
       <c r="G5">
-        <v>0.0009026545665778621</v>
+        <v>0.002705991739570582</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1898088890142375</v>
+        <v>0.2824344081125716</v>
       </c>
       <c r="K5">
-        <v>0.7238447234589103</v>
+        <v>1.217699403914722</v>
       </c>
       <c r="L5">
-        <v>0.08680733177954636</v>
+        <v>0.2897604115504535</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9138338502366992</v>
+        <v>1.796590656294569</v>
       </c>
       <c r="C6">
-        <v>0.04296504114707034</v>
+        <v>0.01008838802034973</v>
       </c>
       <c r="D6">
-        <v>0.06647742508777554</v>
+        <v>0.01682615367209195</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.448497945401044</v>
+        <v>6.622269877384838</v>
       </c>
       <c r="G6">
-        <v>0.0009030410435732225</v>
+        <v>0.002706227935967844</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1892885095949879</v>
+        <v>0.2822896637425032</v>
       </c>
       <c r="K6">
-        <v>0.7197930602983007</v>
+        <v>1.217457068064761</v>
       </c>
       <c r="L6">
-        <v>0.08658457557331189</v>
+        <v>0.2898821153364608</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.944083472673384</v>
+        <v>1.797441677138409</v>
       </c>
       <c r="C7">
-        <v>0.0452024206118864</v>
+        <v>0.01062560421432579</v>
       </c>
       <c r="D7">
-        <v>0.06948977498055342</v>
+        <v>0.01755094879052166</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.631937966013709</v>
+        <v>6.677696850445358</v>
       </c>
       <c r="G7">
-        <v>0.00090037197397293</v>
+        <v>0.002704603312369826</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1929122338440052</v>
+        <v>0.2832970486865207</v>
       </c>
       <c r="K7">
-        <v>0.7480915461389372</v>
+        <v>1.219235627285485</v>
       </c>
       <c r="L7">
-        <v>0.08815522529455677</v>
+        <v>0.2890558894337545</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.083051046469905</v>
+        <v>1.804222587960396</v>
       </c>
       <c r="C8">
-        <v>0.05528614794881292</v>
+        <v>0.01301023618433561</v>
       </c>
       <c r="D8">
-        <v>0.08295943251815174</v>
+        <v>0.02076543609400971</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.45444833100143</v>
+        <v>6.923410682356177</v>
       </c>
       <c r="G8">
-        <v>0.0008889166331423068</v>
+        <v>0.00269780034202141</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2092228296788079</v>
+        <v>0.2878096522070663</v>
       </c>
       <c r="K8">
-        <v>0.8776679762508195</v>
+        <v>1.229473692007303</v>
       </c>
       <c r="L8">
-        <v>0.09572478224622216</v>
+        <v>0.2858682937321504</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.37933372529784</v>
+        <v>1.828407489318636</v>
       </c>
       <c r="C9">
-        <v>0.07615127981416947</v>
+        <v>0.01774403201945063</v>
       </c>
       <c r="D9">
-        <v>0.1103367195101015</v>
+        <v>0.02713675687495254</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>9.12990978335074</v>
+        <v>7.409566419040345</v>
       </c>
       <c r="G9">
-        <v>0.0008674904685436509</v>
+        <v>0.002685765909649445</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2426769465662844</v>
+        <v>0.2969048711120621</v>
       </c>
       <c r="K9">
-        <v>1.152525500178342</v>
+        <v>1.258164833851083</v>
       </c>
       <c r="L9">
-        <v>0.1132184797104259</v>
+        <v>0.2812632930246792</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.615928175427825</v>
+        <v>1.852835275939498</v>
       </c>
       <c r="C10">
-        <v>0.09251316332013459</v>
+        <v>0.02126413045307629</v>
       </c>
       <c r="D10">
-        <v>0.1313910038492452</v>
+        <v>0.03186862192069384</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.41596215976878</v>
+        <v>7.769664403187704</v>
       </c>
       <c r="G10">
-        <v>0.0008522501303162892</v>
+        <v>0.002677711191366578</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2684966922686627</v>
+        <v>0.303742162007886</v>
       </c>
       <c r="K10">
-        <v>1.371330962529896</v>
+        <v>1.284527678821746</v>
       </c>
       <c r="L10">
-        <v>0.128072909624791</v>
+        <v>0.2788825699839421</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.728812871004124</v>
+        <v>1.865399553513413</v>
       </c>
       <c r="C11">
-        <v>0.1002769271664192</v>
+        <v>0.02287623683641016</v>
       </c>
       <c r="D11">
-        <v>0.1412635203770236</v>
+        <v>0.03403440093862287</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.01733051177035</v>
+        <v>7.934181529898467</v>
       </c>
       <c r="G11">
-        <v>0.0008453923915456176</v>
+        <v>0.002674215789434465</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.280600646621096</v>
+        <v>0.3068874339571579</v>
       </c>
       <c r="K11">
-        <v>1.475625317480876</v>
+        <v>1.297675631128243</v>
       </c>
       <c r="L11">
-        <v>0.1353653283717904</v>
+        <v>0.2780171197808272</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.77242566980496</v>
+        <v>1.870366465655763</v>
       </c>
       <c r="C12">
-        <v>0.1032723718982567</v>
+        <v>0.02348837417783045</v>
       </c>
       <c r="D12">
-        <v>0.1450530073828276</v>
+        <v>0.03485658938710401</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.24781741246449</v>
+        <v>7.996586098557373</v>
       </c>
       <c r="G12">
-        <v>0.0008428031766726736</v>
+        <v>0.002672916283265264</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2852440782900203</v>
+        <v>0.3080835715371961</v>
       </c>
       <c r="K12">
-        <v>1.515908672605036</v>
+        <v>1.302821094008237</v>
       </c>
       <c r="L12">
-        <v>0.1382133977277249</v>
+        <v>0.2777206711609068</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762992455633906</v>
+        <v>1.869287447742863</v>
       </c>
       <c r="C13">
-        <v>0.1026246182184991</v>
+        <v>0.02335646343173892</v>
       </c>
       <c r="D13">
-        <v>0.144234457671601</v>
+        <v>0.03467942256381207</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.19804796279209</v>
+        <v>7.983141403632771</v>
       </c>
       <c r="G13">
-        <v>0.000843360523955682</v>
+        <v>0.00267319508440807</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2842412218057291</v>
+        <v>0.3078257344225506</v>
       </c>
       <c r="K13">
-        <v>1.507195997158476</v>
+        <v>1.301705508276058</v>
       </c>
       <c r="L13">
-        <v>0.1375959962238653</v>
+        <v>0.2777831256102985</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.732382887390912</v>
+        <v>1.865803992022364</v>
       </c>
       <c r="C14">
-        <v>0.1005221939007015</v>
+        <v>0.02292656365766277</v>
       </c>
       <c r="D14">
-        <v>0.1415742089489527</v>
+        <v>0.03410200081629</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.03623490530771</v>
+        <v>7.939313454515911</v>
       </c>
       <c r="G14">
-        <v>0.0008451792410928958</v>
+        <v>0.002674108395680686</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2809814116394875</v>
+        <v>0.3069857385007708</v>
       </c>
       <c r="K14">
-        <v>1.478922980603954</v>
+        <v>1.298095609360729</v>
       </c>
       <c r="L14">
-        <v>0.1355978454435345</v>
+        <v>0.2779921039272892</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713749912082108</v>
+        <v>1.863697514228221</v>
       </c>
       <c r="C15">
-        <v>0.09924192389100028</v>
+        <v>0.02266345825037774</v>
       </c>
       <c r="D15">
-        <v>0.1399516422971772</v>
+        <v>0.03374858547803683</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.93749254475762</v>
+        <v>7.912481425613805</v>
       </c>
       <c r="G15">
-        <v>0.0008462941553065652</v>
+        <v>0.002674670963181084</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2789927552073124</v>
+        <v>0.3064718817370817</v>
       </c>
       <c r="K15">
-        <v>1.46171109994728</v>
+        <v>1.295906155241738</v>
       </c>
       <c r="L15">
-        <v>0.1343855054034577</v>
+        <v>0.2781241824592229</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.608665739528817</v>
+        <v>1.852043413390248</v>
       </c>
       <c r="C16">
-        <v>0.09201300618525465</v>
+        <v>0.02115900256809766</v>
       </c>
       <c r="D16">
-        <v>0.1307524536289293</v>
+        <v>0.03172736240473739</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.37702414969147</v>
+        <v>7.758927373656036</v>
       </c>
       <c r="G16">
-        <v>0.00085269955189556</v>
+        <v>0.002677943007642458</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2677135757954971</v>
+        <v>0.3035373199864964</v>
       </c>
       <c r="K16">
-        <v>1.364619500065999</v>
+        <v>1.283691718587903</v>
       </c>
       <c r="L16">
-        <v>0.1276078953798603</v>
+        <v>0.2789435064082895</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.545620098363571</v>
+        <v>1.845266090149352</v>
       </c>
       <c r="C17">
-        <v>0.08766668447573522</v>
+        <v>0.02023891438608416</v>
       </c>
       <c r="D17">
-        <v>0.1251903357657369</v>
+        <v>0.03049090424968881</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.03765669763405</v>
+        <v>7.664910692444153</v>
       </c>
       <c r="G17">
-        <v>0.0008566461894499167</v>
+        <v>0.002679993419304911</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2608916077794774</v>
+        <v>0.3017460598920536</v>
       </c>
       <c r="K17">
-        <v>1.306346181682073</v>
+        <v>1.276494808316301</v>
       </c>
       <c r="L17">
-        <v>0.1235935630874891</v>
+        <v>0.2795018511384981</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.509845318660439</v>
+        <v>1.84150459859697</v>
       </c>
       <c r="C18">
-        <v>0.08519634412412813</v>
+        <v>0.01971071319655948</v>
       </c>
       <c r="D18">
-        <v>0.1220183289514267</v>
+        <v>0.02978096231292682</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.843971634593203</v>
+        <v>7.610901071931067</v>
       </c>
       <c r="G18">
-        <v>0.0008589234757885331</v>
+        <v>0.002681188651456362</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2570009684903809</v>
+        <v>0.3007190605502998</v>
       </c>
       <c r="K18">
-        <v>1.273269755534386</v>
+        <v>1.272464054273087</v>
       </c>
       <c r="L18">
-        <v>0.1213343399599083</v>
+        <v>0.2798434735224475</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.497813188874659</v>
+        <v>1.840254482248952</v>
       </c>
       <c r="C19">
-        <v>0.08436474020655993</v>
+        <v>0.01953204319232782</v>
       </c>
       <c r="D19">
-        <v>0.120948765147304</v>
+        <v>0.02954079583872726</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.778640825748198</v>
+        <v>7.592625610191277</v>
       </c>
       <c r="G19">
-        <v>0.0008596958666302612</v>
+        <v>0.002681596070014719</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2556891242598098</v>
+        <v>0.3003718986454516</v>
       </c>
       <c r="K19">
-        <v>1.262143385145947</v>
+        <v>1.271117968388864</v>
       </c>
       <c r="L19">
-        <v>0.1205776709425592</v>
+        <v>0.2799626581751724</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.552280219762707</v>
+        <v>1.845973403384789</v>
       </c>
       <c r="C20">
-        <v>0.08812623599710179</v>
+        <v>0.02033675406440238</v>
       </c>
       <c r="D20">
-        <v>0.1257795612923047</v>
+        <v>0.03062239829580449</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.07362382681771</v>
+        <v>7.67491204024418</v>
       </c>
       <c r="G20">
-        <v>0.0008562253305567652</v>
+        <v>0.00267977350598342</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2616143268911415</v>
+        <v>0.3019364020180504</v>
       </c>
       <c r="K20">
-        <v>1.312503133588876</v>
+        <v>1.277249676374026</v>
       </c>
       <c r="L20">
-        <v>0.1240156845223979</v>
+        <v>0.2794402951194357</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.741349211700879</v>
+        <v>1.866821490167212</v>
       </c>
       <c r="C21">
-        <v>0.1011381398946725</v>
+        <v>0.02305278945785005</v>
       </c>
       <c r="D21">
-        <v>0.142354131022131</v>
+        <v>0.03427154659006248</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.08368481699193</v>
+        <v>7.952183891131426</v>
       </c>
       <c r="G21">
-        <v>0.0008446448591691153</v>
+        <v>0.002673839480155151</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2819371983163705</v>
+        <v>0.3072323269638275</v>
       </c>
       <c r="K21">
-        <v>1.487205119468143</v>
+        <v>1.299151398285062</v>
       </c>
       <c r="L21">
-        <v>0.1361823173563295</v>
+        <v>0.277929873068345</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.870025571237733</v>
+        <v>1.881665828738676</v>
       </c>
       <c r="C22">
-        <v>0.1099708994862709</v>
+        <v>0.02483765030657992</v>
       </c>
       <c r="D22">
-        <v>0.1534885300870172</v>
+        <v>0.03666852509454088</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.76014715931359</v>
+        <v>8.134013860771859</v>
       </c>
       <c r="G22">
-        <v>0.0008371192487175829</v>
+        <v>0.002670101816051039</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2955733710532797</v>
+        <v>0.3107232273031002</v>
       </c>
       <c r="K22">
-        <v>1.606043479174787</v>
+        <v>1.314436856294634</v>
       </c>
       <c r="L22">
-        <v>0.1446440867345231</v>
+        <v>0.2771250396882579</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.800840792098739</v>
+        <v>1.873631490106078</v>
       </c>
       <c r="C23">
-        <v>0.1052231496286993</v>
+        <v>0.02388410368268978</v>
       </c>
       <c r="D23">
-        <v>0.1475151290350993</v>
+        <v>0.03538805944829448</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.39746172932155</v>
+        <v>8.036910055218357</v>
       </c>
       <c r="G23">
-        <v>0.000841133031476371</v>
+        <v>0.002672083861119776</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2882600370109856</v>
+        <v>0.3088573281226701</v>
       </c>
       <c r="K23">
-        <v>1.542152181938974</v>
+        <v>1.306189671923164</v>
       </c>
       <c r="L23">
-        <v>0.1400776588796333</v>
+        <v>0.2775379137309031</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.549267719935642</v>
+        <v>1.845653206949436</v>
       </c>
       <c r="C24">
-        <v>0.08791838492892623</v>
+        <v>0.02029251835757861</v>
       </c>
       <c r="D24">
-        <v>0.1255130929269086</v>
+        <v>0.03056294700256501</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.0573586896065</v>
+        <v>7.670390300909901</v>
       </c>
       <c r="G24">
-        <v>0.0008564155745871625</v>
+        <v>0.002679872877567051</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2612874883933003</v>
+        <v>0.3018503395665633</v>
       </c>
       <c r="K24">
-        <v>1.309718257484917</v>
+        <v>1.276908067747883</v>
       </c>
       <c r="L24">
-        <v>0.1238246925377453</v>
+        <v>0.2794680603582549</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.296210777758006</v>
+        <v>1.820697062064795</v>
       </c>
       <c r="C25">
-        <v>0.07035474547830489</v>
+        <v>0.01645652523781393</v>
       </c>
       <c r="D25">
-        <v>0.102793171603615</v>
+        <v>0.02540490902737247</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.668318794004705</v>
+        <v>7.277556917269266</v>
       </c>
       <c r="G25">
-        <v>0.000873188427493947</v>
+        <v>0.00268888267128258</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2334360510595133</v>
+        <v>0.2944175166581218</v>
       </c>
       <c r="K25">
-        <v>1.075541658322692</v>
+        <v>1.24947765872065</v>
       </c>
       <c r="L25">
-        <v>0.1081651167414961</v>
+        <v>0.2823329564005377</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_149/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.806795917023464</v>
+        <v>1.1221657752439</v>
       </c>
       <c r="C2">
-        <v>0.01365998443658611</v>
+        <v>0.0580800697318864</v>
       </c>
       <c r="D2">
-        <v>0.0216406295584477</v>
+        <v>0.08666241968932553</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.990267896841829</v>
+        <v>7.680971176617049</v>
       </c>
       <c r="G2">
-        <v>0.00269604581964237</v>
+        <v>0.0008858874388746859</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2890488050483313</v>
+        <v>0.2137300567987737</v>
       </c>
       <c r="K2">
-        <v>1.232829515477675</v>
+        <v>0.9140418003348429</v>
       </c>
       <c r="L2">
-        <v>0.285116032269876</v>
+        <v>0.09794226215785073</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.80015809124103</v>
+        <v>1.010415673023857</v>
       </c>
       <c r="C3">
-        <v>0.01177974038080976</v>
+        <v>0.05005061582004089</v>
       </c>
       <c r="D3">
-        <v>0.01910724806568709</v>
+        <v>0.07598705613959567</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.796685944482363</v>
+        <v>7.028316595110795</v>
       </c>
       <c r="G3">
-        <v>0.002701233681433745</v>
+        <v>0.0008947548510390996</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.285473506385415</v>
+        <v>0.2007607754206333</v>
       </c>
       <c r="K3">
-        <v>1.223749541883478</v>
+        <v>0.8100181268464155</v>
       </c>
       <c r="L3">
-        <v>0.2874226506143316</v>
+        <v>0.09170235937268956</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.797453289979302</v>
+        <v>0.9444402565528094</v>
       </c>
       <c r="C4">
-        <v>0.01063189762125205</v>
+        <v>0.04522870179744842</v>
       </c>
       <c r="D4">
-        <v>0.01755943812875671</v>
+        <v>0.0695251057715609</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.678346016927122</v>
+        <v>6.634090892244586</v>
       </c>
       <c r="G4">
-        <v>0.00270458450299471</v>
+        <v>0.0009003409243500595</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2833088728896698</v>
+        <v>0.192954797129623</v>
       </c>
       <c r="K4">
-        <v>1.219257744936954</v>
+        <v>0.7484250806799082</v>
       </c>
       <c r="L4">
-        <v>0.2890464724699129</v>
+        <v>0.08817393813850316</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.7966956522163</v>
+        <v>0.918162175306918</v>
       </c>
       <c r="C5">
-        <v>0.01016570710898179</v>
+        <v>0.04328633220754341</v>
       </c>
       <c r="D5">
-        <v>0.01693048644654738</v>
+        <v>0.06691056238521043</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.630248799866166</v>
+        <v>6.474858732205519</v>
       </c>
       <c r="G5">
-        <v>0.002705991739570582</v>
+        <v>0.0009026545664898981</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2824344081125716</v>
+        <v>0.1898088890140244</v>
       </c>
       <c r="K5">
-        <v>1.217699403914722</v>
+        <v>0.7238447234589103</v>
       </c>
       <c r="L5">
-        <v>0.2897604115504535</v>
+        <v>0.08680733177944688</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.796590656294569</v>
+        <v>0.9138338502368413</v>
       </c>
       <c r="C6">
-        <v>0.01008838802034973</v>
+        <v>0.04296504114714139</v>
       </c>
       <c r="D6">
-        <v>0.01682615367209195</v>
+        <v>0.06647742508735632</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.622269877384838</v>
+        <v>6.448497945400987</v>
       </c>
       <c r="G6">
-        <v>0.002706227935967844</v>
+        <v>0.0009030410436123848</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2822896637425032</v>
+        <v>0.1892885095950234</v>
       </c>
       <c r="K6">
-        <v>1.217457068064761</v>
+        <v>0.7197930602982154</v>
       </c>
       <c r="L6">
-        <v>0.2898821153364608</v>
+        <v>0.08658457557314136</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.797441677138409</v>
+        <v>0.9440834726732135</v>
       </c>
       <c r="C7">
-        <v>0.01062560421432579</v>
+        <v>0.04520242061227009</v>
       </c>
       <c r="D7">
-        <v>0.01755094879052166</v>
+        <v>0.06948977498035447</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.677696850445358</v>
+        <v>6.631937966013652</v>
       </c>
       <c r="G7">
-        <v>0.002704603312369826</v>
+        <v>0.0009003719739803857</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2832970486865207</v>
+        <v>0.1929122338440763</v>
       </c>
       <c r="K7">
-        <v>1.219235627285485</v>
+        <v>0.7480915461388804</v>
       </c>
       <c r="L7">
-        <v>0.2890558894337545</v>
+        <v>0.08815522529465625</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.804222587960396</v>
+        <v>1.083051046469848</v>
       </c>
       <c r="C8">
-        <v>0.01301023618433561</v>
+        <v>0.05528614794879161</v>
       </c>
       <c r="D8">
-        <v>0.02076543609400971</v>
+        <v>0.08295943251788174</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.923410682356177</v>
+        <v>7.45444833100143</v>
       </c>
       <c r="G8">
-        <v>0.00269780034202141</v>
+        <v>0.0008889166333305585</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2878096522070663</v>
+        <v>0.2092228296788221</v>
       </c>
       <c r="K8">
-        <v>1.229473692007303</v>
+        <v>0.8776679762509616</v>
       </c>
       <c r="L8">
-        <v>0.2858682937321504</v>
+        <v>0.09572478224625058</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.828407489318636</v>
+        <v>1.379333725297755</v>
       </c>
       <c r="C9">
-        <v>0.01774403201945063</v>
+        <v>0.07615127981419789</v>
       </c>
       <c r="D9">
-        <v>0.02713675687495254</v>
+        <v>0.1103367195103573</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7.409566419040345</v>
+        <v>9.129909783350769</v>
       </c>
       <c r="G9">
-        <v>0.002685765909649445</v>
+        <v>0.0008674904687758716</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2969048711120621</v>
+        <v>0.2426769465663199</v>
       </c>
       <c r="K9">
-        <v>1.258164833851083</v>
+        <v>1.152525500178285</v>
       </c>
       <c r="L9">
-        <v>0.2812632930246792</v>
+        <v>0.1132184797102411</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.852835275939498</v>
+        <v>1.615928175427172</v>
       </c>
       <c r="C10">
-        <v>0.02126413045307629</v>
+        <v>0.09251316331966564</v>
       </c>
       <c r="D10">
-        <v>0.03186862192069384</v>
+        <v>0.1313910038494868</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.769664403187704</v>
+        <v>10.41596215976878</v>
       </c>
       <c r="G10">
-        <v>0.002677711191366578</v>
+        <v>0.0008522501304328497</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.303742162007886</v>
+        <v>0.2684966922687906</v>
       </c>
       <c r="K10">
-        <v>1.284527678821746</v>
+        <v>1.37133096253001</v>
       </c>
       <c r="L10">
-        <v>0.2788825699839421</v>
+        <v>0.1280729096247981</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.865399553513413</v>
+        <v>1.728812871003839</v>
       </c>
       <c r="C11">
-        <v>0.02287623683641016</v>
+        <v>0.1002769271667603</v>
       </c>
       <c r="D11">
-        <v>0.03403440093862287</v>
+        <v>0.1412635203768389</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7.934181529898467</v>
+        <v>11.01733051177064</v>
       </c>
       <c r="G11">
-        <v>0.002674215789434465</v>
+        <v>0.0008453923913932089</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3068874339571579</v>
+        <v>0.2806006466211812</v>
       </c>
       <c r="K11">
-        <v>1.297675631128243</v>
+        <v>1.475625317480734</v>
       </c>
       <c r="L11">
-        <v>0.2780171197808272</v>
+        <v>0.1353653283716838</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.870366465655763</v>
+        <v>1.772425669804704</v>
       </c>
       <c r="C12">
-        <v>0.02348837417783045</v>
+        <v>0.1032723718973756</v>
       </c>
       <c r="D12">
-        <v>0.03485658938710401</v>
+        <v>0.1450530073831118</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7.996586098557373</v>
+        <v>11.24781741246431</v>
       </c>
       <c r="G12">
-        <v>0.002672916283265264</v>
+        <v>0.0008428031766867069</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3080835715371961</v>
+        <v>0.285244078289864</v>
       </c>
       <c r="K12">
-        <v>1.302821094008237</v>
+        <v>1.515908672605008</v>
       </c>
       <c r="L12">
-        <v>0.2777206711609068</v>
+        <v>0.1382133977277675</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.869287447742863</v>
+        <v>1.762992455634048</v>
       </c>
       <c r="C13">
-        <v>0.02335646343173892</v>
+        <v>0.1026246182189112</v>
       </c>
       <c r="D13">
-        <v>0.03467942256381207</v>
+        <v>0.1442344576712884</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7.983141403632771</v>
+        <v>11.19804796279215</v>
       </c>
       <c r="G13">
-        <v>0.00267319508440807</v>
+        <v>0.0008433605241883873</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3078257344225506</v>
+        <v>0.2842412218056722</v>
       </c>
       <c r="K13">
-        <v>1.301705508276058</v>
+        <v>1.507195997158561</v>
       </c>
       <c r="L13">
-        <v>0.2777831256102985</v>
+        <v>0.1375959962238014</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.865803992022364</v>
+        <v>1.732382887390713</v>
       </c>
       <c r="C14">
-        <v>0.02292656365766277</v>
+        <v>0.1005221939001189</v>
       </c>
       <c r="D14">
-        <v>0.03410200081629</v>
+        <v>0.1415742089490521</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7.939313454515911</v>
+        <v>11.03623490530782</v>
       </c>
       <c r="G14">
-        <v>0.002674108395680686</v>
+        <v>0.0008451792410725254</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3069857385007708</v>
+        <v>0.2809814116394875</v>
       </c>
       <c r="K14">
-        <v>1.298095609360729</v>
+        <v>1.478922980604182</v>
       </c>
       <c r="L14">
-        <v>0.2779921039272892</v>
+        <v>0.1355978454436411</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.863697514228221</v>
+        <v>1.713749912082164</v>
       </c>
       <c r="C15">
-        <v>0.02266345825037774</v>
+        <v>0.09924192389053133</v>
       </c>
       <c r="D15">
-        <v>0.03374858547803683</v>
+        <v>0.1399516422974472</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>7.912481425613805</v>
+        <v>10.93749254475762</v>
       </c>
       <c r="G15">
-        <v>0.002674670963181084</v>
+        <v>0.0008462941554246835</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3064718817370817</v>
+        <v>0.278992755207355</v>
       </c>
       <c r="K15">
-        <v>1.295906155241738</v>
+        <v>1.461711099947166</v>
       </c>
       <c r="L15">
-        <v>0.2781241824592229</v>
+        <v>0.1343855054035998</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.852043413390248</v>
+        <v>1.608665739528419</v>
       </c>
       <c r="C16">
-        <v>0.02115900256809766</v>
+        <v>0.0920130061853115</v>
       </c>
       <c r="D16">
-        <v>0.03172736240473739</v>
+        <v>0.1307524536287588</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7.758927373656036</v>
+        <v>10.37702414969147</v>
       </c>
       <c r="G16">
-        <v>0.002677943007642458</v>
+        <v>0.0008526995521445276</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3035373199864964</v>
+        <v>0.2677135757953977</v>
       </c>
       <c r="K16">
-        <v>1.283691718587903</v>
+        <v>1.364619500066055</v>
       </c>
       <c r="L16">
-        <v>0.2789435064082895</v>
+        <v>0.127607895379775</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.845266090149352</v>
+        <v>1.545620098363628</v>
       </c>
       <c r="C17">
-        <v>0.02023891438608416</v>
+        <v>0.0876666844756997</v>
       </c>
       <c r="D17">
-        <v>0.03049090424968881</v>
+        <v>0.1251903357656943</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7.664910692444153</v>
+        <v>10.03765669763422</v>
       </c>
       <c r="G17">
-        <v>0.002679993419304911</v>
+        <v>0.0008566461892076214</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3017460598920536</v>
+        <v>0.2608916077794703</v>
       </c>
       <c r="K17">
-        <v>1.276494808316301</v>
+        <v>1.306346181682073</v>
       </c>
       <c r="L17">
-        <v>0.2795018511384981</v>
+        <v>0.1235935630876099</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.84150459859697</v>
+        <v>1.509845318660837</v>
       </c>
       <c r="C18">
-        <v>0.01971071319655948</v>
+        <v>0.08519634412457577</v>
       </c>
       <c r="D18">
-        <v>0.02978096231292682</v>
+        <v>0.1220183289513841</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7.610901071931067</v>
+        <v>9.843971634593231</v>
       </c>
       <c r="G18">
-        <v>0.002681188651456362</v>
+        <v>0.000858923475780184</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3007190605502998</v>
+        <v>0.2570009684904093</v>
       </c>
       <c r="K18">
-        <v>1.272464054273087</v>
+        <v>1.273269755534528</v>
       </c>
       <c r="L18">
-        <v>0.2798434735224475</v>
+        <v>0.1213343399598301</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.840254482248952</v>
+        <v>1.497813188875028</v>
       </c>
       <c r="C19">
-        <v>0.01953204319232782</v>
+        <v>0.08436474020607676</v>
       </c>
       <c r="D19">
-        <v>0.02954079583872726</v>
+        <v>0.120948765147503</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7.592625610191277</v>
+        <v>9.778640825748226</v>
       </c>
       <c r="G19">
-        <v>0.002681596070014719</v>
+        <v>0.0008596958667393834</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3003718986454516</v>
+        <v>0.255689124259618</v>
       </c>
       <c r="K19">
-        <v>1.271117968388864</v>
+        <v>1.262143385145748</v>
       </c>
       <c r="L19">
-        <v>0.2799626581751724</v>
+        <v>0.1205776709423816</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.845973403384789</v>
+        <v>1.552280219762736</v>
       </c>
       <c r="C20">
-        <v>0.02033675406440238</v>
+        <v>0.08812623599755653</v>
       </c>
       <c r="D20">
-        <v>0.03062239829580449</v>
+        <v>0.1257795612925463</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7.67491204024418</v>
+        <v>10.07362382681762</v>
       </c>
       <c r="G20">
-        <v>0.00267977350598342</v>
+        <v>0.0008562253304395878</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3019364020180504</v>
+        <v>0.2616143268912694</v>
       </c>
       <c r="K20">
-        <v>1.277249676374026</v>
+        <v>1.312503133588791</v>
       </c>
       <c r="L20">
-        <v>0.2794402951194357</v>
+        <v>0.1240156845226466</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.866821490167212</v>
+        <v>1.741349211700737</v>
       </c>
       <c r="C21">
-        <v>0.02305278945785005</v>
+        <v>0.1011381398937061</v>
       </c>
       <c r="D21">
-        <v>0.03427154659006248</v>
+        <v>0.1423541310220742</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>7.952183891131426</v>
+        <v>11.08368481699199</v>
       </c>
       <c r="G21">
-        <v>0.002673839480155151</v>
+        <v>0.0008446448588019378</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3072323269638275</v>
+        <v>0.2819371983163421</v>
       </c>
       <c r="K21">
-        <v>1.299151398285062</v>
+        <v>1.487205119468115</v>
       </c>
       <c r="L21">
-        <v>0.277929873068345</v>
+        <v>0.1361823173564218</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.881665828738676</v>
+        <v>1.87002557123779</v>
       </c>
       <c r="C22">
-        <v>0.02483765030657992</v>
+        <v>0.109970899485802</v>
       </c>
       <c r="D22">
-        <v>0.03666852509454088</v>
+        <v>0.1534885300873015</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>8.134013860771859</v>
+        <v>11.76014715931365</v>
       </c>
       <c r="G22">
-        <v>0.002670101816051039</v>
+        <v>0.0008371192489681814</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3107232273031002</v>
+        <v>0.2955733710532513</v>
       </c>
       <c r="K22">
-        <v>1.314436856294634</v>
+        <v>1.606043479174559</v>
       </c>
       <c r="L22">
-        <v>0.2771250396882579</v>
+        <v>0.144644086734516</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.873631490106078</v>
+        <v>1.800840792099052</v>
       </c>
       <c r="C23">
-        <v>0.02388410368268978</v>
+        <v>0.1052231496291824</v>
       </c>
       <c r="D23">
-        <v>0.03538805944829448</v>
+        <v>0.147515129035142</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>8.036910055218357</v>
+        <v>11.39746172932155</v>
       </c>
       <c r="G23">
-        <v>0.002672083861119776</v>
+        <v>0.0008411330316069088</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3088573281226701</v>
+        <v>0.2882600370106729</v>
       </c>
       <c r="K23">
-        <v>1.306189671923164</v>
+        <v>1.542152181938917</v>
       </c>
       <c r="L23">
-        <v>0.2775379137309031</v>
+        <v>0.1400776588795907</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.845653206949436</v>
+        <v>1.549267719935159</v>
       </c>
       <c r="C24">
-        <v>0.02029251835757861</v>
+        <v>0.08791838492847148</v>
       </c>
       <c r="D24">
-        <v>0.03056294700256501</v>
+        <v>0.1255130929267096</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>7.670390300909901</v>
+        <v>10.05735868960645</v>
       </c>
       <c r="G24">
-        <v>0.002679872877567051</v>
+        <v>0.000856415574826408</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3018503395665633</v>
+        <v>0.2612874883933642</v>
       </c>
       <c r="K24">
-        <v>1.276908067747883</v>
+        <v>1.309718257485002</v>
       </c>
       <c r="L24">
-        <v>0.2794680603582549</v>
+        <v>0.1238246925376956</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.820697062064795</v>
+        <v>1.296210777758404</v>
       </c>
       <c r="C25">
-        <v>0.01645652523781393</v>
+        <v>0.07035474547876674</v>
       </c>
       <c r="D25">
-        <v>0.02540490902737247</v>
+        <v>0.102793171603615</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.277556917269266</v>
+        <v>8.668318794004733</v>
       </c>
       <c r="G25">
-        <v>0.00268888267128258</v>
+        <v>0.0008731884277173271</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2944175166581218</v>
+        <v>0.2334360510594919</v>
       </c>
       <c r="K25">
-        <v>1.24947765872065</v>
+        <v>1.075541658322749</v>
       </c>
       <c r="L25">
-        <v>0.2823329564005377</v>
+        <v>0.1081651167415885</v>
       </c>
       <c r="M25">
         <v>0</v>
